--- a/problems_and_tricks.xlsx
+++ b/problems_and_tricks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parik97/Desktop/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F9D036-3BAB-8540-A7E3-6DAF96D1D4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281A405F-E5DC-884B-9C70-B09ECC865A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21260" xr2:uid="{CCC4CACE-1A28-824B-ADC9-6777F8B42011}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>Problem</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Mathematical</t>
-  </si>
-  <si>
-    <t>Implementation</t>
   </si>
   <si>
     <t>GCD</t>
@@ -114,12 +111,82 @@
       <t>to store the frequency of each character. Take casing into account. Clarify whether to ignore punctuation.</t>
     </r>
   </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>Selection Sort</t>
+  </si>
+  <si>
+    <t>Bubble Sort</t>
+  </si>
+  <si>
+    <t>2 for loops (i, j), j = i, declare min and min_pos inside i, swap at end of every i loop</t>
+  </si>
+  <si>
+    <t>2 for loops (i,j) both i, j = 0. Compare and swap within j loop. Use is_swapped to optimise - check after first i loop complete.</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Intuitive Implementations</t>
+  </si>
+  <si>
+    <t>iterative / recursive</t>
+  </si>
+  <si>
+    <t>2 functions: merge_sort and merge. List of len 1 is sorted, else sort left and right then merge. Merge uses 2 variables (i,j). Iterate
+over both lists comparing and incrementing i,j as necessary. Merge in remainder of lists at last.</t>
+  </si>
+  <si>
+    <t>Longest Alpha Substring</t>
+  </si>
+  <si>
+    <t>Worst. Case Runtime</t>
+  </si>
+  <si>
+    <t>O(log(n))</t>
+  </si>
+  <si>
+    <t>O(n^2)</t>
+  </si>
+  <si>
+    <t>O(n * log(n))</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Logarithmic</t>
+  </si>
+  <si>
+    <t>Exponential</t>
+  </si>
+  <si>
+    <t>Loglinear</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
+    <t>O(log(min(a, b)))</t>
+  </si>
+  <si>
+    <t>Add first char to a substrings list, use for loop to keep checking last added character with the next character. Return by joining list.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -142,8 +209,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,8 +230,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -206,20 +286,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -232,6 +317,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -548,22 +648,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85059986-E4D9-9145-ADC8-1BE51CCCAFCA}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="104.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="23" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="23" style="4" customWidth="1"/>
+    <col min="7" max="7" width="110.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -571,280 +672,435 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="8" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A9:A10"/>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/problems_and_tricks.xlsx
+++ b/problems_and_tricks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parik97/Desktop/code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parik97/Desktop/compsci/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281A405F-E5DC-884B-9C70-B09ECC865A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FC85DC-1D65-1A4D-A2BB-66D57E940CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21260" xr2:uid="{CCC4CACE-1A28-824B-ADC9-6777F8B42011}"/>
   </bookViews>
@@ -319,19 +319,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -651,7 +651,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G33" sqref="G32:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -720,7 +720,7 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -743,7 +743,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
@@ -764,11 +764,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -780,7 +780,7 @@
       <c r="F6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -835,7 +835,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -858,7 +858,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
@@ -879,11 +879,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="5" t="s">
